--- a/biology/Médecine/Conduit_thoracique_droit/Conduit_thoracique_droit.xlsx
+++ b/biology/Médecine/Conduit_thoracique_droit/Conduit_thoracique_droit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le conduit thoracique droit (ou canal lymphatique droit ou grande veine lymphatique) est un vaisseau lymphatique important qui draine le quadrant supérieur droit du corps[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conduit thoracique droit (ou canal lymphatique droit ou grande veine lymphatique) est un vaisseau lymphatique important qui draine le quadrant supérieur droit du corps.
 </t>
         </is>
       </c>
@@ -511,12 +523,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conduit thoracique droit chemine le long du bord médial du muscle scalène antérieur à la racine du cou. Il mesure de quelques millimètres à 1 cm.
-Il débouche sous diverses combinaisons dans la veine sous-clavière droite et la veine jugulaire interne droite[2].
-Variantes
-Un canal lymphatique droit qui pénètre directement dans la jonction des veines jugulaire interne et sous-clavière est rare[3].
+Il débouche sous diverses combinaisons dans la veine sous-clavière droite et la veine jugulaire interne droite.
 </t>
         </is>
       </c>
@@ -542,17 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zone de drainage</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le conduit thoracique droit draine[1] le liquide lymphatique de :
-la partie supérieure droite du tronc et la cavité thoracique droite, via le tronc lymphatique broncho-médiastinal droit ;
-le bras droit, via le tronc subclavier droit ;
-le côté droit de la tête et du cou, via le tronc jugulaire droit.
-Chez certains individus, il draine également le lobe inférieur du poumon gauche[4].
-Toutes les autres parties du corps humain sont drainées par le canal thoracique[5],[6].
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un canal lymphatique droit qui pénètre directement dans la jonction des veines jugulaire interne et sous-clavière est rare.
 </t>
         </is>
       </c>
@@ -578,12 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aspect clinique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec le canal thoracique, le canal lymphatique droit est l'une des structures lymphatiques les plus susceptibles d'être rompues dans le thorax[7]. Cela peut provoquer un chylothorax.
+          <t>Zone de drainage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conduit thoracique droit draine le liquide lymphatique de :
+la partie supérieure droite du tronc et la cavité thoracique droite, via le tronc lymphatique broncho-médiastinal droit ;
+le bras droit, via le tronc subclavier droit ;
+le côté droit de la tête et du cou, via le tronc jugulaire droit.
+Chez certains individus, il draine également le lobe inférieur du poumon gauche.
+Toutes les autres parties du corps humain sont drainées par le canal thoracique,.
 </t>
         </is>
       </c>
@@ -609,12 +629,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec le canal thoracique, le canal lymphatique droit est l'une des structures lymphatiques les plus susceptibles d'être rompues dans le thorax. Cela peut provoquer un chylothorax.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conduit_thoracique_droit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique_droit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte de cette structure a été attribuée à Nicolas Sténon[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte de cette structure a été attribuée à Nicolas Sténon.
 </t>
         </is>
       </c>
